--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H2">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.8267096666667</v>
+        <v>2.134850333333333</v>
       </c>
       <c r="N2">
-        <v>509.480129</v>
+        <v>6.404551</v>
       </c>
       <c r="O2">
-        <v>0.7951622771939805</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="P2">
-        <v>0.7951622771939802</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="Q2">
-        <v>153.93432617606</v>
+        <v>2.161786451605777</v>
       </c>
       <c r="R2">
-        <v>1385.40893558454</v>
+        <v>19.456078064452</v>
       </c>
       <c r="S2">
-        <v>0.01385119936829075</v>
+        <v>0.0005858157966752727</v>
       </c>
       <c r="T2">
-        <v>0.01385119936829075</v>
+        <v>0.0005858157966752729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H3">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.90168</v>
       </c>
       <c r="O3">
-        <v>0.001407281425298274</v>
+        <v>0.004432963048734841</v>
       </c>
       <c r="P3">
-        <v>0.001407281425298273</v>
+        <v>0.004432963048734842</v>
       </c>
       <c r="Q3">
-        <v>0.2724335952</v>
+        <v>0.3043522657066666</v>
       </c>
       <c r="R3">
-        <v>2.4519023568</v>
+        <v>2.73917039136</v>
       </c>
       <c r="S3">
-        <v>2.451390885629694E-05</v>
+        <v>8.247547525910247E-05</v>
       </c>
       <c r="T3">
-        <v>2.451390885629694E-05</v>
+        <v>8.247547525910248E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H4">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9041133333333334</v>
+        <v>1.073938666666667</v>
       </c>
       <c r="N4">
-        <v>2.71234</v>
+        <v>3.221816</v>
       </c>
       <c r="O4">
-        <v>0.004233237624316298</v>
+        <v>0.01583953428912994</v>
       </c>
       <c r="P4">
-        <v>0.004233237624316297</v>
+        <v>0.01583953428912995</v>
       </c>
       <c r="Q4">
-        <v>0.8195064076000002</v>
+        <v>1.087488908803555</v>
       </c>
       <c r="R4">
-        <v>7.375557668400001</v>
+        <v>9.787400179232</v>
       </c>
       <c r="S4">
-        <v>7.374019114019214E-05</v>
+        <v>0.0002946952419898196</v>
       </c>
       <c r="T4">
-        <v>7.374019114019213E-05</v>
+        <v>0.0002946952419898196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H5">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.54352433333333</v>
+        <v>64.29180266666667</v>
       </c>
       <c r="N5">
-        <v>127.630573</v>
+        <v>192.875408</v>
       </c>
       <c r="O5">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632866</v>
       </c>
       <c r="P5">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632867</v>
       </c>
       <c r="Q5">
-        <v>38.56230132622</v>
+        <v>65.10299377151289</v>
       </c>
       <c r="R5">
-        <v>347.06071193598</v>
+        <v>585.9269439436159</v>
       </c>
       <c r="S5">
-        <v>0.003469883144573411</v>
+        <v>0.0176420580922204</v>
       </c>
       <c r="T5">
-        <v>0.00346988314457341</v>
+        <v>0.01764205809222041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>127.765256</v>
       </c>
       <c r="I6">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J6">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.8267096666667</v>
+        <v>2.134850333333333</v>
       </c>
       <c r="N6">
-        <v>509.480129</v>
+        <v>6.404551</v>
       </c>
       <c r="O6">
-        <v>0.7951622771939805</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="P6">
-        <v>0.7951622771939802</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="Q6">
-        <v>7232.651012066446</v>
+        <v>90.91989978667287</v>
       </c>
       <c r="R6">
-        <v>65093.85910859802</v>
+        <v>818.2790980800559</v>
       </c>
       <c r="S6">
-        <v>0.650802804144034</v>
+        <v>0.02463810127388041</v>
       </c>
       <c r="T6">
-        <v>0.6508028041440339</v>
+        <v>0.02463810127388042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>127.765256</v>
       </c>
       <c r="I7">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J7">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.90168</v>
       </c>
       <c r="O7">
-        <v>0.001407281425298274</v>
+        <v>0.004432963048734841</v>
       </c>
       <c r="P7">
-        <v>0.001407281425298273</v>
+        <v>0.004432963048734842</v>
       </c>
       <c r="Q7">
         <v>12.80037511445333</v>
@@ -883,10 +883,10 @@
         <v>115.20337603008</v>
       </c>
       <c r="S7">
-        <v>0.00115179344401986</v>
+        <v>0.003468733898228384</v>
       </c>
       <c r="T7">
-        <v>0.00115179344401986</v>
+        <v>0.003468733898228385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>127.765256</v>
       </c>
       <c r="I8">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J8">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9041133333333334</v>
+        <v>1.073938666666667</v>
       </c>
       <c r="N8">
-        <v>2.71234</v>
+        <v>3.221816</v>
       </c>
       <c r="O8">
-        <v>0.004233237624316298</v>
+        <v>0.01583953428912994</v>
       </c>
       <c r="P8">
-        <v>0.004233237624316297</v>
+        <v>0.01583953428912995</v>
       </c>
       <c r="Q8">
-        <v>38.50475716211555</v>
+        <v>45.73734955832177</v>
       </c>
       <c r="R8">
-        <v>346.54281445904</v>
+        <v>411.636146024896</v>
       </c>
       <c r="S8">
-        <v>0.003464705250147311</v>
+        <v>0.01239422231063634</v>
       </c>
       <c r="T8">
-        <v>0.003464705250147311</v>
+        <v>0.01239422231063635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>127.765256</v>
       </c>
       <c r="I9">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J9">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.54352433333333</v>
+        <v>64.29180266666667</v>
       </c>
       <c r="N9">
-        <v>127.630573</v>
+        <v>192.875408</v>
       </c>
       <c r="O9">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632866</v>
       </c>
       <c r="P9">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632867</v>
       </c>
       <c r="Q9">
-        <v>1811.86142586352</v>
+        <v>2738.086208802716</v>
       </c>
       <c r="R9">
-        <v>16306.75283277169</v>
+        <v>24642.77587922445</v>
       </c>
       <c r="S9">
-        <v>0.1630335121527572</v>
+        <v>0.7419854780678623</v>
       </c>
       <c r="T9">
-        <v>0.1630335121527572</v>
+        <v>0.7419854780678624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H10">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.8267096666667</v>
+        <v>2.134850333333333</v>
       </c>
       <c r="N10">
-        <v>509.480129</v>
+        <v>6.404551</v>
       </c>
       <c r="O10">
-        <v>0.7951622771939805</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="P10">
-        <v>0.7951622771939802</v>
+        <v>0.03148693319884856</v>
       </c>
       <c r="Q10">
-        <v>1450.394484652167</v>
+        <v>23.11187832279822</v>
       </c>
       <c r="R10">
-        <v>13053.5503618695</v>
+        <v>208.006904905184</v>
       </c>
       <c r="S10">
-        <v>0.1305082736816557</v>
+        <v>0.006263016128292873</v>
       </c>
       <c r="T10">
-        <v>0.1305082736816556</v>
+        <v>0.006263016128292874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H11">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.90168</v>
       </c>
       <c r="O11">
-        <v>0.001407281425298274</v>
+        <v>0.004432963048734841</v>
       </c>
       <c r="P11">
-        <v>0.001407281425298273</v>
+        <v>0.004432963048734842</v>
       </c>
       <c r="Q11">
-        <v>2.56691404528</v>
+        <v>3.253860957013333</v>
       </c>
       <c r="R11">
-        <v>23.10222640752</v>
+        <v>29.28474861312</v>
       </c>
       <c r="S11">
-        <v>0.0002309740724221166</v>
+        <v>0.0008817536752473543</v>
       </c>
       <c r="T11">
-        <v>0.0002309740724221165</v>
+        <v>0.0008817536752473545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H12">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9041133333333334</v>
+        <v>1.073938666666667</v>
       </c>
       <c r="N12">
-        <v>2.71234</v>
+        <v>3.221816</v>
       </c>
       <c r="O12">
-        <v>0.004233237624316298</v>
+        <v>0.01583953428912994</v>
       </c>
       <c r="P12">
-        <v>0.004233237624316297</v>
+        <v>0.01583953428912995</v>
       </c>
       <c r="Q12">
-        <v>7.721523868306668</v>
+        <v>11.62645427766044</v>
       </c>
       <c r="R12">
-        <v>69.49371481476</v>
+        <v>104.638088498944</v>
       </c>
       <c r="S12">
-        <v>0.0006947921830287948</v>
+        <v>0.003150616736503782</v>
       </c>
       <c r="T12">
-        <v>0.0006947921830287947</v>
+        <v>0.003150616736503783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H13">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.54352433333333</v>
+        <v>64.29180266666667</v>
       </c>
       <c r="N13">
-        <v>127.630573</v>
+        <v>192.875408</v>
       </c>
       <c r="O13">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632866</v>
       </c>
       <c r="P13">
-        <v>0.1991972037564051</v>
+        <v>0.9482405694632867</v>
       </c>
       <c r="Q13">
-        <v>363.3403318703246</v>
+        <v>696.0227127797191</v>
       </c>
       <c r="R13">
-        <v>3270.062986832922</v>
+        <v>6264.204415017472</v>
       </c>
       <c r="S13">
-        <v>0.03269380845907443</v>
+        <v>0.188613033303204</v>
       </c>
       <c r="T13">
-        <v>0.03269380845907443</v>
+        <v>0.188613033303204</v>
       </c>
     </row>
   </sheetData>
